--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Dll4</t>
   </si>
   <si>
     <t>Notch2</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.6351801355646</v>
+        <v>32.05990033333333</v>
       </c>
       <c r="H2">
-        <v>30.6351801355646</v>
+        <v>96.17970099999999</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N2">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q2">
-        <v>60.82534823294575</v>
+        <v>67.9525724381501</v>
       </c>
       <c r="R2">
-        <v>60.82534823294575</v>
+        <v>611.5731519433509</v>
       </c>
       <c r="S2">
-        <v>0.01697690030034419</v>
+        <v>0.01744819852156473</v>
       </c>
       <c r="T2">
-        <v>0.01697690030034419</v>
+        <v>0.01744819852156473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.6351801355646</v>
+        <v>32.05990033333333</v>
       </c>
       <c r="H3">
-        <v>30.6351801355646</v>
+        <v>96.17970099999999</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N3">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q3">
-        <v>697.1684756393709</v>
+        <v>731.5703452603863</v>
       </c>
       <c r="R3">
-        <v>697.1684756393709</v>
+        <v>6584.133107343476</v>
       </c>
       <c r="S3">
-        <v>0.1945859752112649</v>
+        <v>0.1878454951534189</v>
       </c>
       <c r="T3">
-        <v>0.1945859752112649</v>
+        <v>0.1878454951534189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.6351801355646</v>
+        <v>32.05990033333333</v>
       </c>
       <c r="H4">
-        <v>30.6351801355646</v>
+        <v>96.17970099999999</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N4">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q4">
-        <v>1026.280139691465</v>
+        <v>1080.147157997311</v>
       </c>
       <c r="R4">
-        <v>1026.280139691465</v>
+        <v>9721.324421975796</v>
       </c>
       <c r="S4">
-        <v>0.2864439928077254</v>
+        <v>0.2773496479827172</v>
       </c>
       <c r="T4">
-        <v>0.2864439928077254</v>
+        <v>0.2773496479827172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.6351801355646</v>
+        <v>32.05990033333333</v>
       </c>
       <c r="H5">
-        <v>30.6351801355646</v>
+        <v>96.17970099999999</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.992075962021671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N5">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q5">
-        <v>1469.272853666183</v>
+        <v>1601.11694770514</v>
       </c>
       <c r="R5">
-        <v>1469.272853666183</v>
+        <v>14410.05252934626</v>
       </c>
       <c r="S5">
-        <v>0.4100872329602604</v>
+        <v>0.4111191873601067</v>
       </c>
       <c r="T5">
-        <v>0.4100872329602604</v>
+        <v>0.4111191873601067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,991 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>32.05990033333333</v>
+      </c>
+      <c r="H6">
+        <v>96.17970099999999</v>
+      </c>
+      <c r="I6">
+        <v>0.992075962021671</v>
+      </c>
+      <c r="J6">
+        <v>0.992075962021671</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>11.94279566666667</v>
+      </c>
+      <c r="N6">
+        <v>35.828387</v>
+      </c>
+      <c r="O6">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="P6">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="Q6">
+        <v>382.8848387746986</v>
+      </c>
+      <c r="R6">
+        <v>3445.963548972287</v>
+      </c>
+      <c r="S6">
+        <v>0.09831343300386342</v>
+      </c>
+      <c r="T6">
+        <v>0.09831343300386342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.455806</v>
+      </c>
+      <c r="I7">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J7">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.119550333333333</v>
+      </c>
+      <c r="N7">
+        <v>6.358651</v>
+      </c>
+      <c r="O7">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="P7">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="Q7">
+        <v>0.3220345864117778</v>
+      </c>
+      <c r="R7">
+        <v>2.898311277706</v>
+      </c>
+      <c r="S7">
+        <v>8.268889893222203E-05</v>
+      </c>
+      <c r="T7">
+        <v>8.268889893222205E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.455806</v>
+      </c>
+      <c r="I8">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J8">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>22.818859</v>
+      </c>
+      <c r="N8">
+        <v>68.456577</v>
+      </c>
+      <c r="O8">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="P8">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="Q8">
+        <v>3.466990948451333</v>
+      </c>
+      <c r="R8">
+        <v>31.202918536062</v>
+      </c>
+      <c r="S8">
+        <v>0.0008902201075037576</v>
+      </c>
+      <c r="T8">
+        <v>0.0008902201075037577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.455806</v>
+      </c>
+      <c r="I9">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J9">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>33.691532</v>
+      </c>
+      <c r="N9">
+        <v>101.074596</v>
+      </c>
+      <c r="O9">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="P9">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="Q9">
+        <v>5.118934144930667</v>
+      </c>
+      <c r="R9">
+        <v>46.070407304376</v>
+      </c>
+      <c r="S9">
+        <v>0.001314389963100534</v>
+      </c>
+      <c r="T9">
+        <v>0.001314389963100534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>30.6351801355646</v>
-      </c>
-      <c r="H6">
-        <v>30.6351801355646</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>10.7485319989558</v>
-      </c>
-      <c r="N6">
-        <v>10.7485319989558</v>
-      </c>
-      <c r="O6">
-        <v>0.09190589872040524</v>
-      </c>
-      <c r="P6">
-        <v>0.09190589872040524</v>
-      </c>
-      <c r="Q6">
-        <v>329.2832139808912</v>
-      </c>
-      <c r="R6">
-        <v>329.2832139808912</v>
-      </c>
-      <c r="S6">
-        <v>0.09190589872040524</v>
-      </c>
-      <c r="T6">
-        <v>0.09190589872040524</v>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.455806</v>
+      </c>
+      <c r="I10">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J10">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>49.94141999999999</v>
+      </c>
+      <c r="N10">
+        <v>149.82426</v>
+      </c>
+      <c r="O10">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="P10">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="Q10">
+        <v>7.58786629484</v>
+      </c>
+      <c r="R10">
+        <v>68.29079665355999</v>
+      </c>
+      <c r="S10">
+        <v>0.001948338270607233</v>
+      </c>
+      <c r="T10">
+        <v>0.001948338270607234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1519353333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.455806</v>
+      </c>
+      <c r="I11">
+        <v>0.004701555226765051</v>
+      </c>
+      <c r="J11">
+        <v>0.004701555226765052</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.94279566666667</v>
+      </c>
+      <c r="N11">
+        <v>35.828387</v>
+      </c>
+      <c r="O11">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="P11">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="Q11">
+        <v>1.814532640546889</v>
+      </c>
+      <c r="R11">
+        <v>16.330793764922</v>
+      </c>
+      <c r="S11">
+        <v>0.0004659179866213035</v>
+      </c>
+      <c r="T11">
+        <v>0.0004659179866213036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.263879</v>
+      </c>
+      <c r="I12">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J12">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.119550333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.358651</v>
+      </c>
+      <c r="O12">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="P12">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="Q12">
+        <v>0.1864349408032222</v>
+      </c>
+      <c r="R12">
+        <v>1.677914467229</v>
+      </c>
+      <c r="S12">
+        <v>4.787094501023641E-05</v>
+      </c>
+      <c r="T12">
+        <v>4.787094501023641E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.263879</v>
+      </c>
+      <c r="I13">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J13">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>22.818859</v>
+      </c>
+      <c r="N13">
+        <v>68.456577</v>
+      </c>
+      <c r="O13">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="P13">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="Q13">
+        <v>2.007139231353666</v>
+      </c>
+      <c r="R13">
+        <v>18.064253082183</v>
+      </c>
+      <c r="S13">
+        <v>0.0005153736277012239</v>
+      </c>
+      <c r="T13">
+        <v>0.0005153736277012239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.263879</v>
+      </c>
+      <c r="I14">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J14">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>33.691532</v>
+      </c>
+      <c r="N14">
+        <v>101.074596</v>
+      </c>
+      <c r="O14">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="P14">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="Q14">
+        <v>2.963495924209333</v>
+      </c>
+      <c r="R14">
+        <v>26.671463317884</v>
+      </c>
+      <c r="S14">
+        <v>0.0007609375678973199</v>
+      </c>
+      <c r="T14">
+        <v>0.0007609375678973199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.263879</v>
+      </c>
+      <c r="I15">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J15">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>49.94141999999999</v>
+      </c>
+      <c r="N15">
+        <v>149.82426</v>
+      </c>
+      <c r="O15">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="P15">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="Q15">
+        <v>4.392830656059999</v>
+      </c>
+      <c r="R15">
+        <v>39.53547590453999</v>
+      </c>
+      <c r="S15">
+        <v>0.001127948193989474</v>
+      </c>
+      <c r="T15">
+        <v>0.001127948193989474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08795966666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.263879</v>
+      </c>
+      <c r="I16">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="J16">
+        <v>0.00272186344998428</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.94279566666667</v>
+      </c>
+      <c r="N16">
+        <v>35.828387</v>
+      </c>
+      <c r="O16">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="P16">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="Q16">
+        <v>1.050484325908111</v>
+      </c>
+      <c r="R16">
+        <v>9.454358933172999</v>
+      </c>
+      <c r="S16">
+        <v>0.0002697331153860259</v>
+      </c>
+      <c r="T16">
+        <v>0.0002697331153860259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.016178</v>
+      </c>
+      <c r="H17">
+        <v>0.048534</v>
+      </c>
+      <c r="I17">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J17">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.119550333333333</v>
+      </c>
+      <c r="N17">
+        <v>6.358651</v>
+      </c>
+      <c r="O17">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="P17">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="Q17">
+        <v>0.03429008529266667</v>
+      </c>
+      <c r="R17">
+        <v>0.308610767634</v>
+      </c>
+      <c r="S17">
+        <v>8.804673525088446E-06</v>
+      </c>
+      <c r="T17">
+        <v>8.804673525088448E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.016178</v>
+      </c>
+      <c r="H18">
+        <v>0.048534</v>
+      </c>
+      <c r="I18">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J18">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>22.818859</v>
+      </c>
+      <c r="N18">
+        <v>68.456577</v>
+      </c>
+      <c r="O18">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="P18">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="Q18">
+        <v>0.369163500902</v>
+      </c>
+      <c r="R18">
+        <v>3.322471508118</v>
+      </c>
+      <c r="S18">
+        <v>9.479020174720686E-05</v>
+      </c>
+      <c r="T18">
+        <v>9.479020174720686E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.016178</v>
+      </c>
+      <c r="H19">
+        <v>0.048534</v>
+      </c>
+      <c r="I19">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J19">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>33.691532</v>
+      </c>
+      <c r="N19">
+        <v>101.074596</v>
+      </c>
+      <c r="O19">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="P19">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="Q19">
+        <v>0.5450616046960001</v>
+      </c>
+      <c r="R19">
+        <v>4.905554442264</v>
+      </c>
+      <c r="S19">
+        <v>0.0001399556005605923</v>
+      </c>
+      <c r="T19">
+        <v>0.0001399556005605923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.016178</v>
+      </c>
+      <c r="H20">
+        <v>0.048534</v>
+      </c>
+      <c r="I20">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J20">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>49.94141999999999</v>
+      </c>
+      <c r="N20">
+        <v>149.82426</v>
+      </c>
+      <c r="O20">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="P20">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="Q20">
+        <v>0.80795229276</v>
+      </c>
+      <c r="R20">
+        <v>7.271570634839999</v>
+      </c>
+      <c r="S20">
+        <v>0.0002074581063558871</v>
+      </c>
+      <c r="T20">
+        <v>0.0002074581063558871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.016178</v>
+      </c>
+      <c r="H21">
+        <v>0.048534</v>
+      </c>
+      <c r="I21">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="J21">
+        <v>0.0005006193015796523</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.94279566666667</v>
+      </c>
+      <c r="N21">
+        <v>35.828387</v>
+      </c>
+      <c r="O21">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="P21">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="Q21">
+        <v>0.1932105482953334</v>
+      </c>
+      <c r="R21">
+        <v>1.738894934658</v>
+      </c>
+      <c r="S21">
+        <v>4.961071939087758E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.961071939087758E-05</v>
       </c>
     </row>
   </sheetData>
